--- a/biology/Botanique/Anubias_barteri_var._nana/Anubias_barteri_var._nana.xlsx
+++ b/biology/Botanique/Anubias_barteri_var._nana/Anubias_barteri_var._nana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Anubias barteri var. nana est une espèce décrite pour la première fois par Adolf Engler en 1899 comme Anubias nana. Cette plante a été classée au statut de variété en 1979[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Anubias barteri var. nana est une espèce décrite pour la première fois par Adolf Engler en 1899 comme Anubias nana. Cette plante a été classée au statut de variété en 1979.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anubia naine[réf. nécessaire].
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est uniquement connu de Victoria, au Cameroun, en Afrique de l'Ouest[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est uniquement connu de Victoria, au Cameroun, en Afrique de l'Ouest.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une forme naine de l'Anubias barteri. Les épaisses feuilles vert foncé à tige courte de cette plante sont parmi les plus petites et les plus compactes du genre Anubias, atteignant une taille de 15 cm environ[1].
-Une variante d'Anubias barteri var. nana connue sous le nom d'Anubias barteri var. nana gold est disponible dans le commerce aquariophile. Cette variété à des feuilles vert clair à dorées[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une forme naine de l'Anubias barteri. Les épaisses feuilles vert foncé à tige courte de cette plante sont parmi les plus petites et les plus compactes du genre Anubias, atteignant une taille de 15 cm environ.
+Une variante d'Anubias barteri var. nana connue sous le nom d'Anubias barteri var. nana gold est disponible dans le commerce aquariophile. Cette variété à des feuilles vert clair à dorées.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme la plupart des espèces d'Anubias, cette plante pousse bien partiellement ou totalement submergée. Le rhizome doit être au-dessus du substrat, fixé à des rochers ou à du bois. Elle tolère gamme d'éclairage variée, et une plage de température de 20 à 28 °C. Elle peut être multiplié en divisant le rhizome ou en séparant des pousses latérales[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des espèces d'Anubias, cette plante pousse bien partiellement ou totalement submergée. Le rhizome doit être au-dessus du substrat, fixé à des rochers ou à du bois. Elle tolère gamme d'éclairage variée, et une plage de température de 20 à 28 °C. Elle peut être multiplié en divisant le rhizome ou en séparant des pousses latérales.
 </t>
         </is>
       </c>
